--- a/fhir/core/2.2.0/ValueSet-dk-marital-status.xlsx
+++ b/fhir/core/2.2.0/ValueSet-dk-marital-status.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2019-11-01T09:29:23+11:00</t>
+    <t>2023-05-04T21:35:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/2.2.0/ValueSet-dk-marital-status.xlsx
+++ b/fhir/core/2.2.0/ValueSet-dk-marital-status.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
